--- a/docs/odh/shr-core-Condition.xlsx
+++ b/docs/odh/shr-core-Condition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="319">
   <si>
     <t>Path</t>
   </si>
@@ -227,26 +227,111 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Condition.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>Condition.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Condition.meta.extension</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Condition.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Condition.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Condition.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Condition.extension</t>
   </si>
   <si>
     <t>extensions
@@ -260,7 +345,7 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -270,206 +355,7 @@
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Condition.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Condition.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Condition.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Condition.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Condition.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Condition.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Condition.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Condition.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Condition.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Condition.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -604,6 +490,9 @@
   </si>
   <si>
     <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
+  </si>
+  <si>
+    <t>preferred</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/odh/shr/core/vs/ConditionCategoryVS</t>
@@ -709,9 +598,6 @@
     <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
@@ -727,7 +613,32 @@
     <t>Condition.bodySite.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Condition.bodySite.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>laterality</t>
@@ -763,6 +674,10 @@
     <t>Condition.bodySite.coding</t>
   </si>
   <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -1007,6 +922,9 @@
   </si>
   <si>
     <t>A simple summary of the stage such as "Stage 3". The determination of the stage is disease-specific.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing condition stages (e.g. Cancer stages).</t>
@@ -1269,7 +1187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP51"/>
+  <dimension ref="A1:AP44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1301,7 +1219,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="77.01171875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="55.51171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -1812,10 +1730,10 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>66</v>
@@ -1826,7 +1744,9 @@
       <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -1875,7 +1795,7 @@
         <v>42</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -1899,7 +1819,7 @@
         <v>42</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>42</v>
@@ -1914,14 +1834,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -1933,16 +1853,16 @@
         <v>42</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1968,37 +1888,37 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>42</v>
@@ -2016,7 +1936,7 @@
         <v>42</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>42</v>
@@ -2027,11 +1947,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2047,19 +1967,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2108,13 +2028,17 @@
       <c r="AD7" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2129,7 +2053,7 @@
         <v>42</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>42</v>
@@ -2140,18 +2064,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2160,19 +2084,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2221,11 +2145,15 @@
       <c r="AD8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>42</v>
       </c>
@@ -2242,7 +2170,7 @@
         <v>42</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>42</v>
@@ -2253,11 +2181,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2273,19 +2201,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2323,22 +2251,24 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>42</v>
       </c>
@@ -2355,7 +2285,7 @@
         <v>42</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>42</v>
@@ -2366,9 +2296,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2377,7 +2309,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>42</v>
@@ -2386,20 +2318,16 @@
         <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2424,13 +2352,13 @@
         <v>42</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2447,11 +2375,15 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2479,11 +2411,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2496,22 +2428,22 @@
         <v>42</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2537,13 +2469,13 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>42</v>
@@ -2560,11 +2492,15 @@
       <c r="AD11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2581,7 +2517,7 @@
         <v>42</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>42</v>
@@ -2592,7 +2528,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2603,30 +2539,30 @@
         <v>43</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2674,13 +2610,13 @@
         <v>42</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>42</v>
@@ -2698,18 +2634,18 @@
         <v>42</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2717,31 +2653,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2767,31 +2703,29 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="X13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="X13" s="2"/>
+      <c r="Y13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -2800,69 +2734,69 @@
         <v>53</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
@@ -2884,13 +2818,11 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2908,7 +2840,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -2917,47 +2849,47 @@
         <v>53</v>
       </c>
       <c r="AH14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AI14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AO14" t="s" s="2">
-        <v>42</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>42</v>
@@ -2966,16 +2898,16 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3001,13 +2933,11 @@
         <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>42</v>
@@ -3025,7 +2955,7 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3040,19 +2970,19 @@
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>42</v>
@@ -3060,18 +2990,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>42</v>
@@ -3083,16 +3013,16 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3118,35 +3048,37 @@
         <v>42</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>42</v>
@@ -3158,56 +3090,58 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>42</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3231,13 +3165,13 @@
         <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
@@ -3255,13 +3189,13 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>42</v>
@@ -3270,31 +3204,31 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3307,22 +3241,22 @@
         <v>42</v>
       </c>
       <c r="H18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="I18" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3348,13 +3282,11 @@
         <v>42</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>42</v>
@@ -3372,7 +3304,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3390,24 +3322,24 @@
         <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>42</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3418,7 +3350,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3427,21 +3359,19 @@
         <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3489,13 +3419,13 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
@@ -3513,50 +3443,50 @@
         <v>42</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3582,100 +3512,100 @@
         <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X20" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y20" t="s" s="2">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
@@ -3697,11 +3627,13 @@
         <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3719,56 +3651,58 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>42</v>
@@ -3777,17 +3711,13 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="L22" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3812,11 +3742,13 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3834,7 +3766,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -3849,19 +3781,19 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>42</v>
@@ -3871,7 +3803,9 @@
       <c r="A23" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3880,7 +3814,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>42</v>
@@ -3892,17 +3826,13 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3927,13 +3857,13 @@
         <v>42</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>42</v>
@@ -3951,13 +3881,13 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>42</v>
@@ -3969,38 +3899,38 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>198</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>42</v>
@@ -4009,17 +3939,19 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N24" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -4044,13 +3976,13 @@
         <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
@@ -4067,15 +3999,11 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="AE24" s="2"/>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>53</v>
-      </c>
+      <c r="AG24" s="2"/>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -4083,27 +4011,27 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>210</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4114,7 +4042,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
@@ -4126,18 +4054,20 @@
         <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4161,96 +4091,96 @@
         <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE25" s="2"/>
+      <c r="AF25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG25" s="2"/>
+      <c r="AH25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="X25" s="2"/>
-      <c r="Y25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4298,10 +4228,10 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>53</v>
@@ -4313,19 +4243,19 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>42</v>
@@ -4333,18 +4263,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4353,19 +4283,19 @@
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4403,25 +4333,25 @@
         <v>42</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
@@ -4436,13 +4366,13 @@
         <v>42</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>42</v>
@@ -4450,11 +4380,9 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4463,7 +4391,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4472,16 +4400,20 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="K28" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4530,13 +4462,13 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>42</v>
@@ -4551,13 +4483,13 @@
         <v>42</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>42</v>
@@ -4565,11 +4497,9 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4578,7 +4508,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4590,13 +4520,17 @@
         <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="K29" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="L29" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4645,16 +4579,16 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>42</v>
@@ -4669,10 +4603,10 @@
         <v>42</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>42</v>
@@ -4680,11 +4614,9 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4693,7 +4625,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4702,16 +4634,20 @@
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="K30" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="L30" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4760,13 +4696,13 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>42</v>
@@ -4781,13 +4717,13 @@
         <v>42</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>42</v>
@@ -4795,7 +4731,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4806,7 +4742,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
@@ -4818,20 +4754,16 @@
         <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>96</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4878,11 +4810,15 @@
       <c r="AD31" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE31" s="2"/>
+      <c r="AE31" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG31" s="2"/>
+      <c r="AG31" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4896,13 +4832,13 @@
         <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>42</v>
@@ -4910,7 +4846,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4930,23 +4866,19 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4993,16 +4925,20 @@
       <c r="AD32" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE32" s="2"/>
+      <c r="AE32" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG32" s="2"/>
+      <c r="AG32" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>42</v>
@@ -5011,10 +4947,10 @@
         <v>42</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>42</v>
@@ -5023,43 +4959,41 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5107,10 +5041,10 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>53</v>
@@ -5122,19 +5056,19 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>42</v>
@@ -5142,18 +5076,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>256</v>
+        <v>98</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -5162,19 +5096,19 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>257</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>260</v>
+        <v>102</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5224,13 +5158,13 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
@@ -5245,13 +5179,13 @@
         <v>42</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>42</v>
@@ -5259,39 +5193,39 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>268</v>
+        <v>102</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5341,13 +5275,13 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>42</v>
@@ -5362,13 +5296,13 @@
         <v>42</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>269</v>
+        <v>42</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>270</v>
+        <v>96</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>42</v>
@@ -5376,7 +5310,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5399,17 +5333,15 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>273</v>
+        <v>143</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5434,13 +5366,13 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5458,7 +5390,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5467,7 +5399,7 @@
         <v>53</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>42</v>
@@ -5476,16 +5408,16 @@
         <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>278</v>
+        <v>172</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>279</v>
+        <v>42</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>42</v>
@@ -5493,7 +5425,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5513,20 +5445,18 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5575,16 +5505,16 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>42</v>
@@ -5596,13 +5526,13 @@
         <v>42</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>42</v>
@@ -5610,7 +5540,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5621,7 +5551,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5630,18 +5560,20 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5690,19 +5622,19 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>42</v>
@@ -5711,13 +5643,13 @@
         <v>42</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>42</v>
@@ -5725,7 +5657,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5748,13 +5680,13 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>296</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>297</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>298</v>
+        <v>186</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5805,7 +5737,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>295</v>
+        <v>187</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -5817,7 +5749,7 @@
         <v>42</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>42</v>
@@ -5829,7 +5761,7 @@
         <v>42</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>300</v>
+        <v>188</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>42</v>
@@ -5840,18 +5772,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5863,15 +5795,17 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5920,13 +5854,13 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>42</v>
@@ -5944,7 +5878,7 @@
         <v>42</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>42</v>
@@ -5955,11 +5889,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5972,22 +5906,22 @@
         <v>42</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6037,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6061,7 +5995,7 @@
         <v>42</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>42</v>
@@ -6072,11 +6006,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6089,23 +6023,21 @@
         <v>42</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>147</v>
+        <v>303</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6130,13 +6062,11 @@
         <v>42</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
@@ -6154,7 +6084,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6163,7 +6093,7 @@
         <v>44</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>42</v>
@@ -6172,16 +6102,16 @@
         <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>139</v>
+        <v>307</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>42</v>
+        <v>308</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>42</v>
@@ -6189,7 +6119,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6200,7 +6130,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -6209,16 +6139,16 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6245,13 +6175,13 @@
         <v>42</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>310</v>
+        <v>42</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>42</v>
@@ -6269,16 +6199,16 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>42</v>
@@ -6287,16 +6217,16 @@
         <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>313</v>
+        <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>42</v>
+        <v>308</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>42</v>
@@ -6304,7 +6234,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6315,7 +6245,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6327,13 +6257,13 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6384,7 +6314,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6393,7 +6323,7 @@
         <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>42</v>
@@ -6405,829 +6335,20 @@
         <v>42</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X49" s="2"/>
-      <c r="Y49" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO51" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO51">
+  <autoFilter ref="A1:AO44">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7237,7 +6358,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-Condition.xlsx
+++ b/docs/odh/shr-core-Condition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="369">
   <si>
     <t>Path</t>
   </si>
@@ -227,13 +227,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Condition.implicitRules</t>
+    <t>Condition.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Condition.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Condition.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Condition.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Condition.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Condition.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Condition.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Condition.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -263,9 +412,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -334,37 +480,26 @@
     <t>Condition.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Author-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
+    <t>The actor who created the item and it responsible for the content (regardless of the information source or who recorded it). If only the author is given, it is assumed the author is the information source and the recorder.</t>
   </si>
   <si>
     <t>dateofdiagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DateOfDiagnosis-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DateOfDiagnosis-extension]]} {[]}
 </t>
   </si>
   <si>
@@ -492,34 +627,34 @@
     <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-ConditionCategoryVS</t>
+  </si>
+  <si>
+    <t>&lt; 404684003 |Clinical finding|</t>
+  </si>
+  <si>
+    <t>'problem' if from PRB-3. 'diagnosis' if from DG1 segment in PV1 message</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Condition.severity</t>
+  </si>
+  <si>
+    <t>Subjective severity of condition</t>
+  </si>
+  <si>
+    <t>A subjective assessment of the severity of the condition as evaluated by the clinician.</t>
+  </si>
+  <si>
+    <t>Coding of the severity with a terminology is preferred, where possible.</t>
+  </si>
+  <si>
     <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/ConditionCategoryVS</t>
-  </si>
-  <si>
-    <t>&lt; 404684003 |Clinical finding|</t>
-  </si>
-  <si>
-    <t>'problem' if from PRB-3. 'diagnosis' if from DG1 segment in PV1 message</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Condition.severity</t>
-  </si>
-  <si>
-    <t>Subjective severity of condition</t>
-  </si>
-  <si>
-    <t>A subjective assessment of the severity of the condition as evaluated by the clinician.</t>
-  </si>
-  <si>
-    <t>Coding of the severity with a terminology is preferred, where possible.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
@@ -598,7 +733,7 @@
     <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-BodyLocationVS</t>
   </si>
   <si>
     <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
@@ -613,69 +748,64 @@
     <t>Condition.bodySite.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>Condition.bodySite.extension</t>
+  </si>
+  <si>
+    <t>laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Laterality-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Orientation-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
-  </si>
-  <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+  </si>
+  <si>
+    <t>relationtolandmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
-  </si>
-  <si>
-    <t>relationtolandmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>An anatomical landmark that helps determine a body location.</t>
+    <t>The relationship between a landmark that helps determine a body location and the body location itself. The location relative to a landmark is specified by:
+* Specifying the location and type of landmark using a body site code and optional laterality/orientation,
+* Specifying the direction from the landmark to the body location, and
+* Specifying the distance from the landmark to the body location.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>Condition.bodySite.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -724,7 +854,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient]]}
 </t>
   </si>
   <si>
@@ -756,7 +886,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -857,7 +987,7 @@
     <t>Condition.asserter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson]]}
 </t>
   </si>
   <si>
@@ -902,6 +1032,58 @@
     <t>Condition.stage.extension</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Type-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A code describing the item at a greater level of detail.</t>
+  </si>
+  <si>
+    <t>Condition.stage.extension.id</t>
+  </si>
+  <si>
+    <t>Condition.stage.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Condition.stage.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Type-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Condition.stage.extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>Condition.stage.modifierExtension</t>
   </si>
   <si>
@@ -924,9 +1106,6 @@
     <t>A simple summary of the stage such as "Stage 3". The determination of the stage is disease-specific.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes describing condition stages (e.g. Cancer stages).</t>
   </si>
   <si>
@@ -946,7 +1125,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DiagnosticReport], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation]]}
 </t>
   </si>
   <si>
@@ -1012,7 +1191,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource]]}
 </t>
   </si>
   <si>
@@ -1025,7 +1204,7 @@
     <t>Condition.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Annotation]]} {[]}
 </t>
   </si>
   <si>
@@ -1187,7 +1366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP44"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1196,7 +1375,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.19140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.5078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="18.359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1219,8 +1398,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="77.01171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.51171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -1730,10 +1909,10 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>66</v>
@@ -1744,9 +1923,7 @@
       <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -1795,7 +1972,7 @@
         <v>42</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -1819,7 +1996,7 @@
         <v>42</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>42</v>
@@ -1834,14 +2011,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -1853,16 +2030,16 @@
         <v>42</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1888,37 +2065,37 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>42</v>
@@ -1936,7 +2113,7 @@
         <v>42</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>42</v>
@@ -1947,11 +2124,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1972,15 +2151,11 @@
       <c r="J7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>42</v>
@@ -2029,16 +2204,16 @@
         <v>42</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2053,7 +2228,7 @@
         <v>42</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>42</v>
@@ -2064,18 +2239,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2084,19 +2259,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2145,15 +2320,11 @@
       <c r="AD8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>95</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>42</v>
       </c>
@@ -2170,7 +2341,7 @@
         <v>42</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>42</v>
@@ -2181,18 +2352,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>42</v>
@@ -2201,19 +2372,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2251,24 +2422,22 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>42</v>
       </c>
@@ -2285,7 +2454,7 @@
         <v>42</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>42</v>
@@ -2296,11 +2465,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2309,7 +2476,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>42</v>
@@ -2318,16 +2485,20 @@
         <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2375,15 +2546,11 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2411,11 +2578,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2428,19 +2595,19 @@
         <v>42</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>102</v>
@@ -2469,13 +2636,13 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>42</v>
@@ -2492,15 +2659,11 @@
       <c r="AD11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2517,7 +2680,7 @@
         <v>42</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>42</v>
@@ -2528,7 +2691,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2551,18 +2714,18 @@
         <v>54</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2586,13 +2749,13 @@
         <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>42</v>
@@ -2609,43 +2772,39 @@
       <c r="AD12" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE12" t="s" s="2">
+      <c r="AE12" s="2"/>
+      <c r="AF12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG12" s="2"/>
+      <c r="AH12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2653,13 +2812,13 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>54</v>
@@ -2668,16 +2827,16 @@
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2703,11 +2862,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X13" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y13" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2725,7 +2886,7 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -2734,33 +2895,33 @@
         <v>53</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2768,35 +2929,35 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
@@ -2818,12 +2979,14 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
       </c>
@@ -2840,7 +3003,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -2849,47 +3012,47 @@
         <v>53</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>141</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>42</v>
@@ -2898,16 +3061,16 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2933,11 +3096,13 @@
         <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>42</v>
@@ -2955,34 +3120,34 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>42</v>
@@ -2990,18 +3155,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>42</v>
@@ -3013,16 +3178,16 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3048,13 +3213,13 @@
         <v>42</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>42</v>
@@ -3072,13 +3237,13 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>42</v>
@@ -3090,58 +3255,58 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>162</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3165,37 +3330,35 @@
         <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>42</v>
@@ -3204,29 +3367,31 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>174</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3235,7 +3400,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>42</v>
@@ -3244,20 +3409,16 @@
         <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3282,11 +3443,13 @@
         <v>42</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>42</v>
@@ -3304,7 +3467,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3322,26 +3485,28 @@
         <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>182</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3362,13 +3527,11 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3419,13 +3582,13 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
@@ -3443,7 +3606,7 @@
         <v>42</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>42</v>
@@ -3454,11 +3617,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3471,22 +3634,22 @@
         <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3524,19 +3687,19 @@
         <v>42</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3560,7 +3723,7 @@
         <v>42</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>42</v>
@@ -3571,11 +3734,9 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3593,17 +3754,21 @@
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K21" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3651,7 +3816,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3675,49 +3840,51 @@
         <v>42</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="K22" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="L22" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3742,13 +3909,11 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3766,76 +3931,78 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="K23" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
@@ -3857,13 +4024,11 @@
         <v>42</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>42</v>
@@ -3881,42 +4046,42 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>42</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3924,35 +4089,33 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3976,13 +4139,11 @@
         <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
@@ -3999,11 +4160,15 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" s="2"/>
+      <c r="AE24" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG24" s="2"/>
+      <c r="AG24" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -4011,19 +4176,19 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>42</v>
@@ -4031,7 +4196,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4051,23 +4216,21 @@
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4091,13 +4254,13 @@
         <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
@@ -4114,11 +4277,15 @@
       <c r="AD25" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE25" s="2"/>
+      <c r="AE25" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG25" s="2"/>
+      <c r="AG25" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4129,28 +4296,28 @@
         <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>42</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4169,17 +4336,17 @@
         <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4204,13 +4371,13 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4228,10 +4395,10 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>53</v>
@@ -4243,38 +4410,38 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>42</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4286,16 +4453,16 @@
         <v>54</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4321,13 +4488,11 @@
         <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4345,13 +4510,13 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
@@ -4363,24 +4528,24 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4400,20 +4565,18 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>67</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4462,7 +4625,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4483,13 +4646,13 @@
         <v>42</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>242</v>
+        <v>70</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>42</v>
@@ -4497,18 +4660,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4520,16 +4683,16 @@
         <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4567,28 +4730,28 @@
         <v>42</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>42</v>
@@ -4603,10 +4766,10 @@
         <v>42</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>42</v>
@@ -4614,9 +4777,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4625,7 +4790,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4634,20 +4799,16 @@
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="K30" s="2"/>
       <c r="L30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4696,13 +4857,13 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>42</v>
@@ -4717,13 +4878,13 @@
         <v>42</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>42</v>
@@ -4731,9 +4892,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4742,7 +4905,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
@@ -4751,16 +4914,14 @@
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="K31" s="2"/>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4811,13 +4972,13 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
@@ -4832,13 +4993,13 @@
         <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>42</v>
@@ -4846,9 +5007,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4857,7 +5020,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>42</v>
@@ -4869,13 +5032,11 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="K32" s="2"/>
       <c r="L32" t="s" s="2">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4926,19 +5087,19 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>42</v>
@@ -4950,7 +5111,7 @@
         <v>42</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>42</v>
@@ -4961,7 +5122,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4972,7 +5133,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -4981,19 +5142,23 @@
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5040,15 +5205,11 @@
       <c r="AD33" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE33" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="AE33" s="2"/>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>53</v>
-      </c>
+      <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5062,10 +5223,10 @@
         <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>42</v>
@@ -5076,18 +5237,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -5096,21 +5257,23 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
@@ -5157,15 +5320,11 @@
       <c r="AD34" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE34" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="AE34" s="2"/>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
@@ -5179,10 +5338,10 @@
         <v>42</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>42</v>
@@ -5191,43 +5350,43 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5275,13 +5434,13 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>42</v>
@@ -5290,19 +5449,19 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>42</v>
@@ -5310,11 +5469,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5330,18 +5489,20 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5366,13 +5527,13 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5390,7 +5551,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5399,7 +5560,7 @@
         <v>53</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>42</v>
@@ -5408,16 +5569,16 @@
         <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>42</v>
+        <v>269</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>42</v>
@@ -5425,7 +5586,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5445,18 +5606,20 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5505,16 +5668,16 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>42</v>
@@ -5526,13 +5689,13 @@
         <v>42</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>42</v>
@@ -5540,7 +5703,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5551,7 +5714,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5563,16 +5726,16 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5622,19 +5785,19 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>297</v>
+        <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>42</v>
@@ -5646,10 +5809,10 @@
         <v>42</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>42</v>
@@ -5657,7 +5820,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5677,18 +5840,20 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5737,7 +5902,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>187</v>
+        <v>286</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -5758,13 +5923,13 @@
         <v>42</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>188</v>
+        <v>292</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>42</v>
+        <v>293</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>42</v>
@@ -5772,18 +5937,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5792,20 +5957,18 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>99</v>
+        <v>295</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5854,13 +6017,13 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>42</v>
@@ -5875,13 +6038,13 @@
         <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>42</v>
+        <v>298</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>42</v>
@@ -5893,36 +6056,34 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>99</v>
+        <v>302</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>110</v>
+        <v>303</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5971,19 +6132,19 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>42</v>
@@ -5995,7 +6156,7 @@
         <v>42</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>96</v>
+        <v>306</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>42</v>
@@ -6006,7 +6167,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6017,7 +6178,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -6026,16 +6187,16 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>303</v>
+        <v>67</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>304</v>
+        <v>68</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6062,11 +6223,13 @@
         <v>42</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>305</v>
+        <v>42</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
@@ -6084,16 +6247,16 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>302</v>
+        <v>69</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>42</v>
@@ -6102,16 +6265,16 @@
         <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>307</v>
+        <v>70</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>42</v>
@@ -6119,11 +6282,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6139,18 +6302,20 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>311</v>
+        <v>74</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6187,19 +6352,17 @@
         <v>42</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6208,7 +6371,7 @@
         <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>42</v>
@@ -6223,10 +6386,10 @@
         <v>42</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>292</v>
+        <v>70</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>42</v>
@@ -6234,9 +6397,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6245,7 +6410,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6257,13 +6422,11 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="K44" s="2"/>
       <c r="L44" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6314,7 +6477,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6335,20 +6498,1634 @@
         <v>42</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AN44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO44" t="s" s="2">
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X48" s="2"/>
+      <c r="Y48" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X56" s="2"/>
+      <c r="Y56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO44">
+  <autoFilter ref="A1:AO58">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6358,7 +8135,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
